--- a/data/pca/factorExposure/factorExposure_2019-03-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1206901336353126</v>
+        <v>0.07575285415007132</v>
       </c>
       <c r="C2">
-        <v>-0.01188537846558538</v>
+        <v>0.0355818265174532</v>
       </c>
       <c r="D2">
-        <v>0.04786667752973972</v>
+        <v>0.01243382276510396</v>
       </c>
       <c r="E2">
-        <v>0.1265018271350746</v>
+        <v>-0.04014284138089304</v>
       </c>
       <c r="F2">
-        <v>0.1097864809690553</v>
+        <v>0.1412074706813143</v>
       </c>
       <c r="G2">
-        <v>-0.00258354625590387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1051260482717856</v>
+      </c>
+      <c r="H2">
+        <v>-0.05998891339936866</v>
+      </c>
+      <c r="I2">
+        <v>-0.02970674036316721</v>
+      </c>
+      <c r="J2">
+        <v>-0.06685444240690121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2167999051666259</v>
+        <v>0.170433722634728</v>
       </c>
       <c r="C3">
-        <v>-0.1419545801334632</v>
+        <v>0.09087069229323246</v>
       </c>
       <c r="D3">
-        <v>-0.04797599301874363</v>
+        <v>-0.03378723847790098</v>
       </c>
       <c r="E3">
-        <v>0.3342418302366484</v>
+        <v>0.01008283066206507</v>
       </c>
       <c r="F3">
-        <v>0.02936175590699708</v>
+        <v>0.3727163309834183</v>
       </c>
       <c r="G3">
-        <v>-0.08009390554048261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.09670305912729038</v>
+      </c>
+      <c r="H3">
+        <v>-0.2828288553791011</v>
+      </c>
+      <c r="I3">
+        <v>-0.1835688773754411</v>
+      </c>
+      <c r="J3">
+        <v>-0.2426738756759022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09370163402670718</v>
+        <v>0.07435640955672246</v>
       </c>
       <c r="C4">
-        <v>-0.04272157320575427</v>
+        <v>0.03649900894972664</v>
       </c>
       <c r="D4">
-        <v>0.02295935748997194</v>
+        <v>-0.02687340099425936</v>
       </c>
       <c r="E4">
-        <v>0.07647308908395087</v>
+        <v>-0.03695968537953125</v>
       </c>
       <c r="F4">
-        <v>0.03658163699164636</v>
+        <v>0.08143726980772599</v>
       </c>
       <c r="G4">
-        <v>-0.01988127926305375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04685314670679687</v>
+      </c>
+      <c r="H4">
+        <v>-0.02355310176708899</v>
+      </c>
+      <c r="I4">
+        <v>-0.0315813636269347</v>
+      </c>
+      <c r="J4">
+        <v>-0.05812321820120554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01740254876681485</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.009002687543782211</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009637700423700301</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.00549733848482328</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003903855462418089</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02110589854070107</v>
+      </c>
+      <c r="H6">
+        <v>0.001319365274197908</v>
+      </c>
+      <c r="I6">
+        <v>0.01350273425162871</v>
+      </c>
+      <c r="J6">
+        <v>-0.0009732515664270659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04287369967259243</v>
+        <v>0.03518703600878304</v>
       </c>
       <c r="C7">
-        <v>-0.01563175409254761</v>
+        <v>0.004818058761150737</v>
       </c>
       <c r="D7">
-        <v>0.03430405248283613</v>
+        <v>-0.03983738455709063</v>
       </c>
       <c r="E7">
-        <v>0.0765924416193489</v>
+        <v>-0.02858032871309453</v>
       </c>
       <c r="F7">
-        <v>-0.05378390691059096</v>
+        <v>0.05522121566614485</v>
       </c>
       <c r="G7">
-        <v>0.01285224994760787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.006288540954237286</v>
+      </c>
+      <c r="H7">
+        <v>-0.04599421611771657</v>
+      </c>
+      <c r="I7">
+        <v>-0.0009130621790561456</v>
+      </c>
+      <c r="J7">
+        <v>-0.0556404912446544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04333937192094149</v>
+        <v>0.03062486634790524</v>
       </c>
       <c r="C8">
-        <v>-0.05413719496209399</v>
+        <v>0.04260941095679011</v>
       </c>
       <c r="D8">
-        <v>0.002197921914549318</v>
+        <v>-0.02903336554255029</v>
       </c>
       <c r="E8">
-        <v>0.07411510721900642</v>
+        <v>-0.01718701172594437</v>
       </c>
       <c r="F8">
-        <v>0.007504351085379079</v>
+        <v>0.0723754735854388</v>
       </c>
       <c r="G8">
-        <v>-0.009101187611467854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0216697882804469</v>
+      </c>
+      <c r="H8">
+        <v>-0.04468415681665633</v>
+      </c>
+      <c r="I8">
+        <v>-0.03454174922600358</v>
+      </c>
+      <c r="J8">
+        <v>-0.0606262901610153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08311900981811619</v>
+        <v>0.06129630754911036</v>
       </c>
       <c r="C9">
-        <v>-0.04046047006842763</v>
+        <v>0.03293238075730129</v>
       </c>
       <c r="D9">
-        <v>0.03159237611136689</v>
+        <v>-0.03081727351212444</v>
       </c>
       <c r="E9">
-        <v>0.06346049156740825</v>
+        <v>-0.03235770777963835</v>
       </c>
       <c r="F9">
-        <v>0.02450927584177741</v>
+        <v>0.08230930182737667</v>
       </c>
       <c r="G9">
-        <v>-0.04068384258630346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04327504485765626</v>
+      </c>
+      <c r="H9">
+        <v>-0.021246496199037</v>
+      </c>
+      <c r="I9">
+        <v>-0.01377490541444272</v>
+      </c>
+      <c r="J9">
+        <v>-0.03630145713754705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.01450240645019942</v>
+        <v>0.02633857352015793</v>
       </c>
       <c r="C10">
-        <v>0.1586260338153745</v>
+        <v>-0.1434263598203829</v>
       </c>
       <c r="D10">
-        <v>-0.02924998848197327</v>
+        <v>0.06259728882198407</v>
       </c>
       <c r="E10">
-        <v>0.07205784388150102</v>
+        <v>0.02643586743644264</v>
       </c>
       <c r="F10">
-        <v>0.01341173441120004</v>
+        <v>0.06703666005635811</v>
       </c>
       <c r="G10">
-        <v>0.02941027859888621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02217968527569051</v>
+      </c>
+      <c r="H10">
+        <v>-0.00036424193976961</v>
+      </c>
+      <c r="I10">
+        <v>-0.1084199532375407</v>
+      </c>
+      <c r="J10">
+        <v>0.004756404199858576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.0585516847887871</v>
+        <v>0.05036734386623833</v>
       </c>
       <c r="C11">
-        <v>-0.01439215704881612</v>
+        <v>0.02801150354006664</v>
       </c>
       <c r="D11">
-        <v>-0.007354909754872071</v>
+        <v>-0.002284130176364234</v>
       </c>
       <c r="E11">
-        <v>0.04339926609367092</v>
+        <v>-0.008347584708562526</v>
       </c>
       <c r="F11">
-        <v>0.003363815763610724</v>
+        <v>0.04013589243296405</v>
       </c>
       <c r="G11">
-        <v>0.02270425767869057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.006792730020084175</v>
+      </c>
+      <c r="H11">
+        <v>-0.001373788569282609</v>
+      </c>
+      <c r="I11">
+        <v>0.01035093461534211</v>
+      </c>
+      <c r="J11">
+        <v>-0.04507094658356642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04563117120696594</v>
+        <v>0.04756443833539764</v>
       </c>
       <c r="C12">
-        <v>-0.01781123458313134</v>
+        <v>0.02118329721081442</v>
       </c>
       <c r="D12">
-        <v>-0.003535669472016544</v>
+        <v>-0.0113783317157853</v>
       </c>
       <c r="E12">
-        <v>0.03045034052410411</v>
+        <v>-0.01053913707092775</v>
       </c>
       <c r="F12">
-        <v>-0.008288053014517939</v>
+        <v>0.01561776232130242</v>
       </c>
       <c r="G12">
-        <v>-0.001618386538205534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.002462277751555445</v>
+      </c>
+      <c r="H12">
+        <v>-0.003444301771208161</v>
+      </c>
+      <c r="I12">
+        <v>0.006625057163353284</v>
+      </c>
+      <c r="J12">
+        <v>-0.03072407371755847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06396762211232562</v>
+        <v>0.04235950402082043</v>
       </c>
       <c r="C13">
-        <v>-0.02714138704867229</v>
+        <v>0.0297461456303836</v>
       </c>
       <c r="D13">
-        <v>-0.01114130797668627</v>
+        <v>0.005764359092292728</v>
       </c>
       <c r="E13">
-        <v>0.1120526121511567</v>
+        <v>-0.008502991844850134</v>
       </c>
       <c r="F13">
-        <v>0.01264913942280886</v>
+        <v>0.1062785352503116</v>
       </c>
       <c r="G13">
-        <v>0.008578386984240466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02167805150885764</v>
+      </c>
+      <c r="H13">
+        <v>-0.04631187219194573</v>
+      </c>
+      <c r="I13">
+        <v>-0.006267275892423606</v>
+      </c>
+      <c r="J13">
+        <v>-0.05750261295359568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03381951939758482</v>
+        <v>0.02785572265873431</v>
       </c>
       <c r="C14">
-        <v>-0.02154097203492387</v>
+        <v>0.01705705515495618</v>
       </c>
       <c r="D14">
-        <v>0.02617777870485865</v>
+        <v>-0.01183914245580148</v>
       </c>
       <c r="E14">
-        <v>0.03260013426825343</v>
+        <v>-0.02514326401740275</v>
       </c>
       <c r="F14">
-        <v>0.01026119070578644</v>
+        <v>0.04084219284990449</v>
       </c>
       <c r="G14">
-        <v>0.03733988307942686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.0292113607522654</v>
+      </c>
+      <c r="H14">
+        <v>-0.05147823529365347</v>
+      </c>
+      <c r="I14">
+        <v>-0.008774449292007689</v>
+      </c>
+      <c r="J14">
+        <v>-0.0142964381390136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04772787975816765</v>
+        <v>0.04465134132087215</v>
       </c>
       <c r="C16">
-        <v>-0.02846611754814986</v>
+        <v>0.03301734370328758</v>
       </c>
       <c r="D16">
-        <v>-0.01081069978564782</v>
+        <v>-0.01062878174599948</v>
       </c>
       <c r="E16">
-        <v>0.03295193325596813</v>
+        <v>-0.0051040802516453</v>
       </c>
       <c r="F16">
-        <v>-0.01011672908899344</v>
+        <v>0.03394865991349853</v>
       </c>
       <c r="G16">
-        <v>0.009413104900403452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005346912158772392</v>
+      </c>
+      <c r="H16">
+        <v>-0.008647243140204755</v>
+      </c>
+      <c r="I16">
+        <v>0.008646742070156827</v>
+      </c>
+      <c r="J16">
+        <v>-0.0384925552434706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05218149895963515</v>
+        <v>0.04857177358763481</v>
       </c>
       <c r="C19">
-        <v>-0.04003458283167898</v>
+        <v>0.04038547929918365</v>
       </c>
       <c r="D19">
-        <v>-0.00661337875442395</v>
+        <v>-0.0129603432529623</v>
       </c>
       <c r="E19">
-        <v>0.07732775553956552</v>
+        <v>-0.01722788877825012</v>
       </c>
       <c r="F19">
-        <v>-0.01975051685189532</v>
+        <v>0.08011276506111017</v>
       </c>
       <c r="G19">
-        <v>0.03165901359866242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01107554272109514</v>
+      </c>
+      <c r="H19">
+        <v>-0.0825066305387014</v>
+      </c>
+      <c r="I19">
+        <v>-0.03440353623032015</v>
+      </c>
+      <c r="J19">
+        <v>-0.0494258081888436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03626238880359504</v>
+        <v>0.01888891709366622</v>
       </c>
       <c r="C20">
-        <v>-0.0439250037012531</v>
+        <v>0.02719104024486189</v>
       </c>
       <c r="D20">
-        <v>0.0111583731585822</v>
+        <v>-0.01751388406016736</v>
       </c>
       <c r="E20">
-        <v>0.06864047998202379</v>
+        <v>-0.01870657292593409</v>
       </c>
       <c r="F20">
-        <v>-0.01184276448592667</v>
+        <v>0.06719049473576758</v>
       </c>
       <c r="G20">
-        <v>0.01697260003399786</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01473828546721401</v>
+      </c>
+      <c r="H20">
+        <v>-0.0690688986467063</v>
+      </c>
+      <c r="I20">
+        <v>-0.02025272120446531</v>
+      </c>
+      <c r="J20">
+        <v>-0.07873465387264406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03937840223720846</v>
+        <v>0.0261302036885348</v>
       </c>
       <c r="C21">
-        <v>-0.03303302840221412</v>
+        <v>0.02617859876133162</v>
       </c>
       <c r="D21">
-        <v>-0.002457076243000845</v>
+        <v>-0.02448752687017619</v>
       </c>
       <c r="E21">
-        <v>0.1057092652801663</v>
+        <v>-0.007293946766351636</v>
       </c>
       <c r="F21">
-        <v>0.04694375030307128</v>
+        <v>0.07857803701632286</v>
       </c>
       <c r="G21">
-        <v>0.01965715202056084</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03548482707125467</v>
+      </c>
+      <c r="H21">
+        <v>-0.02334994610584228</v>
+      </c>
+      <c r="I21">
+        <v>0.01229764994792231</v>
+      </c>
+      <c r="J21">
+        <v>-0.02717042524376016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.05131297551405483</v>
+        <v>0.04365641441539143</v>
       </c>
       <c r="C24">
-        <v>-0.02100918407944363</v>
+        <v>0.02201998576389091</v>
       </c>
       <c r="D24">
-        <v>-0.00317947115125327</v>
+        <v>-0.00631563166028044</v>
       </c>
       <c r="E24">
-        <v>0.04579787134928531</v>
+        <v>-0.0102935837730945</v>
       </c>
       <c r="F24">
-        <v>-0.008668427959666518</v>
+        <v>0.04101764838525922</v>
       </c>
       <c r="G24">
-        <v>0.001706019327922635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.004740539179206454</v>
+      </c>
+      <c r="H24">
+        <v>-0.008131650918359004</v>
+      </c>
+      <c r="I24">
+        <v>0.006125815786996324</v>
+      </c>
+      <c r="J24">
+        <v>-0.04394515409333007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.0519161464925923</v>
+        <v>0.04669940326580353</v>
       </c>
       <c r="C25">
-        <v>-0.01001824018086048</v>
+        <v>0.02082409562494978</v>
       </c>
       <c r="D25">
-        <v>-0.005428053056245329</v>
+        <v>-0.004581856461195872</v>
       </c>
       <c r="E25">
-        <v>0.04280592322755239</v>
+        <v>-0.008204382883718905</v>
       </c>
       <c r="F25">
-        <v>0.00490860305425543</v>
+        <v>0.04421769444858886</v>
       </c>
       <c r="G25">
-        <v>0.008261586972185417</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.004811695165004002</v>
+      </c>
+      <c r="H25">
+        <v>0.0002163312114581284</v>
+      </c>
+      <c r="I25">
+        <v>0.01158022223679808</v>
+      </c>
+      <c r="J25">
+        <v>-0.03794258560239648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01849174538255686</v>
+        <v>0.01662792243519789</v>
       </c>
       <c r="C26">
-        <v>-0.02818722471639635</v>
+        <v>0.02324218529447657</v>
       </c>
       <c r="D26">
-        <v>0.0008066374229204558</v>
+        <v>-0.004007470071566454</v>
       </c>
       <c r="E26">
-        <v>0.03899190624876315</v>
+        <v>0.0004456304393472336</v>
       </c>
       <c r="F26">
-        <v>0.01754977395320099</v>
+        <v>0.0479335289304636</v>
       </c>
       <c r="G26">
-        <v>0.02764127916351279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02248728068606263</v>
+      </c>
+      <c r="H26">
+        <v>-0.03241338934206303</v>
+      </c>
+      <c r="I26">
+        <v>0.005987294067762198</v>
+      </c>
+      <c r="J26">
+        <v>-0.03749925224790773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1146358869864728</v>
+        <v>0.0775567932682542</v>
       </c>
       <c r="C27">
-        <v>-0.03276649518664899</v>
+        <v>0.02636163469349581</v>
       </c>
       <c r="D27">
-        <v>0.01751373062473192</v>
+        <v>-0.01270519004759342</v>
       </c>
       <c r="E27">
-        <v>0.09818963040831243</v>
+        <v>-0.03326576359632962</v>
       </c>
       <c r="F27">
-        <v>0.006980527382783143</v>
+        <v>0.06898911939215205</v>
       </c>
       <c r="G27">
-        <v>-0.004868729159545206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0170993803629919</v>
+      </c>
+      <c r="H27">
+        <v>-0.01275613792416862</v>
+      </c>
+      <c r="I27">
+        <v>-0.02481538278646074</v>
+      </c>
+      <c r="J27">
+        <v>-0.04215159623235695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.009767287421918623</v>
+        <v>0.04099930885722589</v>
       </c>
       <c r="C28">
-        <v>0.24172159930387</v>
+        <v>-0.2212235965497145</v>
       </c>
       <c r="D28">
-        <v>-0.02764780077865439</v>
+        <v>0.08565856584860379</v>
       </c>
       <c r="E28">
-        <v>0.05036419749207371</v>
+        <v>0.04146977083658947</v>
       </c>
       <c r="F28">
-        <v>0.0330083587531522</v>
+        <v>0.05736218470541883</v>
       </c>
       <c r="G28">
-        <v>0.01895646814739116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02465576125809287</v>
+      </c>
+      <c r="H28">
+        <v>0.004895197346658838</v>
+      </c>
+      <c r="I28">
+        <v>-0.155932729664518</v>
+      </c>
+      <c r="J28">
+        <v>-0.0006029771539903538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02360930190265381</v>
+        <v>0.02241089430834207</v>
       </c>
       <c r="C29">
-        <v>-0.02498953988990209</v>
+        <v>0.01561054982113522</v>
       </c>
       <c r="D29">
-        <v>0.02892982107660662</v>
+        <v>-0.01624181704881461</v>
       </c>
       <c r="E29">
-        <v>0.03445461560216988</v>
+        <v>-0.02540739371315055</v>
       </c>
       <c r="F29">
-        <v>0.01422463437511391</v>
+        <v>0.03565423664205379</v>
       </c>
       <c r="G29">
-        <v>0.02762114536000204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0305912462302118</v>
+      </c>
+      <c r="H29">
+        <v>-0.04899633275133407</v>
+      </c>
+      <c r="I29">
+        <v>-0.002565468389359016</v>
+      </c>
+      <c r="J29">
+        <v>-0.008562087961792832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1144161667541706</v>
+        <v>0.0910786255107284</v>
       </c>
       <c r="C30">
-        <v>-0.02153622399524172</v>
+        <v>0.05766122431385631</v>
       </c>
       <c r="D30">
-        <v>0.0231048982692185</v>
+        <v>0.02029204187797984</v>
       </c>
       <c r="E30">
-        <v>0.1057113229240036</v>
+        <v>-0.03003072752040279</v>
       </c>
       <c r="F30">
-        <v>-0.01282040565956026</v>
+        <v>0.1028744696403601</v>
       </c>
       <c r="G30">
-        <v>0.04228723096683695</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01402286172044005</v>
+      </c>
+      <c r="H30">
+        <v>-0.02253473078102837</v>
+      </c>
+      <c r="I30">
+        <v>0.01185545682128147</v>
+      </c>
+      <c r="J30">
+        <v>-0.03122341527145532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.06576244125189698</v>
+        <v>0.06305957170392305</v>
       </c>
       <c r="C31">
-        <v>-0.01580209059402372</v>
+        <v>0.02380879245208919</v>
       </c>
       <c r="D31">
-        <v>0.0144205724717443</v>
+        <v>0.004419406246460992</v>
       </c>
       <c r="E31">
-        <v>-0.01765298830869188</v>
+        <v>-0.02116305737407845</v>
       </c>
       <c r="F31">
-        <v>0.008112818206001777</v>
+        <v>0.003247854147150062</v>
       </c>
       <c r="G31">
-        <v>0.05580282288830865</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04141680981799572</v>
+      </c>
+      <c r="H31">
+        <v>-0.0298936490938</v>
+      </c>
+      <c r="I31">
+        <v>-0.01320348003014766</v>
+      </c>
+      <c r="J31">
+        <v>-0.01419035693575872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06529258325495933</v>
+        <v>0.04445814848884257</v>
       </c>
       <c r="C32">
-        <v>-0.03627832920173193</v>
+        <v>0.0418367705738602</v>
       </c>
       <c r="D32">
-        <v>0.006788199980414105</v>
+        <v>-0.03094482070852805</v>
       </c>
       <c r="E32">
-        <v>0.1059000672998237</v>
+        <v>-0.02785164077420555</v>
       </c>
       <c r="F32">
-        <v>-0.01466339633965812</v>
+        <v>0.0873705250657206</v>
       </c>
       <c r="G32">
-        <v>0.03339734941908707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01299715921830871</v>
+      </c>
+      <c r="H32">
+        <v>-0.03973543240263529</v>
+      </c>
+      <c r="I32">
+        <v>-0.02345010773353683</v>
+      </c>
+      <c r="J32">
+        <v>-0.04723086943453684</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06745041798815851</v>
+        <v>0.05789403217733422</v>
       </c>
       <c r="C33">
-        <v>-0.04613692686476349</v>
+        <v>0.05523061393974261</v>
       </c>
       <c r="D33">
-        <v>0.006568130245890235</v>
+        <v>-1.380909866507241e-05</v>
       </c>
       <c r="E33">
-        <v>0.07514369340472722</v>
+        <v>-0.01099330758607524</v>
       </c>
       <c r="F33">
-        <v>0.04311844403221578</v>
+        <v>0.0775454862989399</v>
       </c>
       <c r="G33">
-        <v>0.02181105484683982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03637863095521882</v>
+      </c>
+      <c r="H33">
+        <v>-0.03827316056784848</v>
+      </c>
+      <c r="I33">
+        <v>0.0115530959202396</v>
+      </c>
+      <c r="J33">
+        <v>-0.0521800758044814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04843520965307097</v>
+        <v>0.04556544459733348</v>
       </c>
       <c r="C34">
-        <v>-0.02089564192815068</v>
+        <v>0.02763681487436623</v>
       </c>
       <c r="D34">
-        <v>4.715190764540404e-05</v>
+        <v>-0.0137186446363766</v>
       </c>
       <c r="E34">
-        <v>0.02830232500736462</v>
+        <v>-0.01515888795679617</v>
       </c>
       <c r="F34">
-        <v>-0.008435409328376376</v>
+        <v>0.03152925195088765</v>
       </c>
       <c r="G34">
-        <v>0.006288430240877218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-7.784070801854891e-05</v>
+      </c>
+      <c r="H34">
+        <v>-0.01191730504689784</v>
+      </c>
+      <c r="I34">
+        <v>0.006728848063944136</v>
+      </c>
+      <c r="J34">
+        <v>-0.03457049344443087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01249376938104599</v>
+        <v>0.0156605608191378</v>
       </c>
       <c r="C36">
-        <v>0.0001237961689358886</v>
+        <v>0.001118020348886628</v>
       </c>
       <c r="D36">
-        <v>0.006867927452794464</v>
+        <v>-0.005168867202146559</v>
       </c>
       <c r="E36">
-        <v>0.02581379089331733</v>
+        <v>-0.009815038568659114</v>
       </c>
       <c r="F36">
-        <v>0.007990690040967989</v>
+        <v>0.0279015987638313</v>
       </c>
       <c r="G36">
-        <v>0.02225972902497505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0237000206545922</v>
+      </c>
+      <c r="H36">
+        <v>-0.02794371448231914</v>
+      </c>
+      <c r="I36">
+        <v>0.00384415946128086</v>
+      </c>
+      <c r="J36">
+        <v>-0.002384869648712918</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05208688879734982</v>
+        <v>0.0365748487749939</v>
       </c>
       <c r="C38">
-        <v>-0.01815709074918702</v>
+        <v>0.01274344219471009</v>
       </c>
       <c r="D38">
-        <v>0.02554542014495266</v>
+        <v>-0.007127274143179711</v>
       </c>
       <c r="E38">
-        <v>0.03094987176898008</v>
+        <v>-0.0128140273138264</v>
       </c>
       <c r="F38">
-        <v>0.006045784168198729</v>
+        <v>0.04981568031296733</v>
       </c>
       <c r="G38">
-        <v>-0.01994444883533385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02922721305417451</v>
+      </c>
+      <c r="H38">
+        <v>-0.01359380821625454</v>
+      </c>
+      <c r="I38">
+        <v>0.01328858745282268</v>
+      </c>
+      <c r="J38">
+        <v>-0.002845271160330807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07400383780125665</v>
+        <v>0.0575573535551687</v>
       </c>
       <c r="C39">
-        <v>-0.01900376326370069</v>
+        <v>0.040445582675387</v>
       </c>
       <c r="D39">
-        <v>0.002207707396260391</v>
+        <v>-0.008778653473828711</v>
       </c>
       <c r="E39">
-        <v>0.04265937767774453</v>
+        <v>-0.01685055207581481</v>
       </c>
       <c r="F39">
-        <v>0.01361906144729087</v>
+        <v>0.0547539361435166</v>
       </c>
       <c r="G39">
-        <v>0.01008555877719511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01670256036873073</v>
+      </c>
+      <c r="H39">
+        <v>-0.001204460622460452</v>
+      </c>
+      <c r="I39">
+        <v>0.02948546290549158</v>
+      </c>
+      <c r="J39">
+        <v>-0.04734709405474795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07659701606109169</v>
+        <v>0.05722177301499978</v>
       </c>
       <c r="C40">
-        <v>-0.0427688558584088</v>
+        <v>0.04528297898718113</v>
       </c>
       <c r="D40">
-        <v>0.003672963838770087</v>
+        <v>0.006240718238086398</v>
       </c>
       <c r="E40">
-        <v>0.1083988184082835</v>
+        <v>-0.02289463328586729</v>
       </c>
       <c r="F40">
-        <v>0.02561336710895052</v>
+        <v>0.09537572571936434</v>
       </c>
       <c r="G40">
-        <v>-0.02827180636865422</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02331441020052759</v>
+      </c>
+      <c r="H40">
+        <v>-0.05352958189111012</v>
+      </c>
+      <c r="I40">
+        <v>-0.01527553504230102</v>
+      </c>
+      <c r="J40">
+        <v>-0.1167769742415724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003255088337312243</v>
+        <v>0.003461487024029765</v>
       </c>
       <c r="C41">
-        <v>-0.01895843746924156</v>
+        <v>0.01168807838394477</v>
       </c>
       <c r="D41">
-        <v>0.02597891988367595</v>
+        <v>-0.005180857146260357</v>
       </c>
       <c r="E41">
-        <v>0.01295786320151721</v>
+        <v>-0.008183492005518635</v>
       </c>
       <c r="F41">
-        <v>0.02860540042791635</v>
+        <v>0.0146106784732378</v>
       </c>
       <c r="G41">
-        <v>0.03524910981109534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03686026401675499</v>
+      </c>
+      <c r="H41">
+        <v>-0.03156706848999392</v>
+      </c>
+      <c r="I41">
+        <v>-0.02237934009309644</v>
+      </c>
+      <c r="J41">
+        <v>-0.01080816230335295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.14133568600883</v>
+        <v>0.2249750343077246</v>
       </c>
       <c r="C42">
-        <v>-0.1980135799660938</v>
+        <v>0.206103664505511</v>
       </c>
       <c r="D42">
-        <v>-0.9277858877151466</v>
+        <v>-0.01702047288004461</v>
       </c>
       <c r="E42">
-        <v>-0.1303886573139946</v>
+        <v>0.9255426082292253</v>
       </c>
       <c r="F42">
-        <v>-0.03909295183951473</v>
+        <v>-0.1477359751508673</v>
       </c>
       <c r="G42">
-        <v>0.09048852489654065</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.0002342172387714292</v>
+      </c>
+      <c r="H42">
+        <v>0.0009114585542345714</v>
+      </c>
+      <c r="I42">
+        <v>-0.04636522474960488</v>
+      </c>
+      <c r="J42">
+        <v>-0.03039684502508411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.003037593722519428</v>
+        <v>0.006254587067046111</v>
       </c>
       <c r="C43">
-        <v>-0.02117696223291911</v>
+        <v>0.01449669242758709</v>
       </c>
       <c r="D43">
-        <v>0.0159154611407088</v>
+        <v>-0.003230009530937399</v>
       </c>
       <c r="E43">
-        <v>0.0369501336842857</v>
+        <v>-0.007896823528410413</v>
       </c>
       <c r="F43">
-        <v>0.007394913580908167</v>
+        <v>0.02914015095244782</v>
       </c>
       <c r="G43">
-        <v>0.02606201578055882</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02178356261449729</v>
+      </c>
+      <c r="H43">
+        <v>-0.03165336026398356</v>
+      </c>
+      <c r="I43">
+        <v>-0.01303072686673736</v>
+      </c>
+      <c r="J43">
+        <v>-0.019744732156819</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03961194136835899</v>
+        <v>0.02973381882398338</v>
       </c>
       <c r="C44">
-        <v>-0.05154943769623281</v>
+        <v>0.03879892641524992</v>
       </c>
       <c r="D44">
-        <v>0.009291345900081405</v>
+        <v>-0.01633032397545062</v>
       </c>
       <c r="E44">
-        <v>0.1264691669891031</v>
+        <v>-0.00936651608461341</v>
       </c>
       <c r="F44">
-        <v>0.08515947331334549</v>
+        <v>0.1213047522911051</v>
       </c>
       <c r="G44">
-        <v>0.04659349511367215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06317213979997247</v>
+      </c>
+      <c r="H44">
+        <v>-0.1029917387284576</v>
+      </c>
+      <c r="I44">
+        <v>-0.01962127202239348</v>
+      </c>
+      <c r="J44">
+        <v>-0.03070008090962446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.0279965503414299</v>
+        <v>0.02557638246647728</v>
       </c>
       <c r="C46">
-        <v>-0.02561086532021294</v>
+        <v>0.03429942190948304</v>
       </c>
       <c r="D46">
-        <v>0.02931391844054916</v>
+        <v>-0.0102049817311424</v>
       </c>
       <c r="E46">
-        <v>0.03338159140070991</v>
+        <v>-0.02717293144281302</v>
       </c>
       <c r="F46">
-        <v>0.02499948230092735</v>
+        <v>0.04808575167101341</v>
       </c>
       <c r="G46">
-        <v>0.03621737960916897</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02722003538385471</v>
+      </c>
+      <c r="H46">
+        <v>-0.05071383971772531</v>
+      </c>
+      <c r="I46">
+        <v>-0.001042442667126895</v>
+      </c>
+      <c r="J46">
+        <v>-0.01916769876571777</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08981810927233173</v>
+        <v>0.09169557151737275</v>
       </c>
       <c r="C47">
-        <v>-0.0130274460061948</v>
+        <v>0.01733257694538579</v>
       </c>
       <c r="D47">
-        <v>0.01581796882523992</v>
+        <v>0.001511184514603658</v>
       </c>
       <c r="E47">
-        <v>-0.01885302174921307</v>
+        <v>-0.02453832650566674</v>
       </c>
       <c r="F47">
-        <v>0.01038686092033283</v>
+        <v>-0.01013859133646374</v>
       </c>
       <c r="G47">
-        <v>0.03049809943606543</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04256657706171106</v>
+      </c>
+      <c r="H47">
+        <v>-0.05292438330263179</v>
+      </c>
+      <c r="I47">
+        <v>-0.01975095636379636</v>
+      </c>
+      <c r="J47">
+        <v>-0.02565497848772389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01833862019764359</v>
+        <v>0.01897061809749535</v>
       </c>
       <c r="C48">
-        <v>-0.02397572309472717</v>
+        <v>0.0181114986666606</v>
       </c>
       <c r="D48">
-        <v>0.01307417213044948</v>
+        <v>-0.008241935630088836</v>
       </c>
       <c r="E48">
-        <v>0.03114043702429382</v>
+        <v>-0.01286126320741659</v>
       </c>
       <c r="F48">
-        <v>0.009644326807457897</v>
+        <v>0.0307377796186948</v>
       </c>
       <c r="G48">
-        <v>0.01179485229822588</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01582202634128799</v>
+      </c>
+      <c r="H48">
+        <v>-0.0210820079276048</v>
+      </c>
+      <c r="I48">
+        <v>-0.01176863159862935</v>
+      </c>
+      <c r="J48">
+        <v>-0.01365226431720507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.09286834522484394</v>
+        <v>0.09050722845547098</v>
       </c>
       <c r="C50">
-        <v>-0.04018819084821179</v>
+        <v>0.03283964267841179</v>
       </c>
       <c r="D50">
-        <v>0.02550160341808706</v>
+        <v>-0.02174908503827833</v>
       </c>
       <c r="E50">
-        <v>-0.01603464330795323</v>
+        <v>-0.02377607420836036</v>
       </c>
       <c r="F50">
-        <v>-0.007605873655322768</v>
+        <v>-0.004098764566148443</v>
       </c>
       <c r="G50">
-        <v>0.03701525331769967</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.001061366381530762</v>
+      </c>
+      <c r="H50">
+        <v>-0.03756213711846154</v>
+      </c>
+      <c r="I50">
+        <v>0.004519473460954117</v>
+      </c>
+      <c r="J50">
+        <v>-0.01048205067230757</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.05551947744034501</v>
+        <v>0.03919241419521644</v>
       </c>
       <c r="C51">
-        <v>0.01751537825547612</v>
+        <v>-0.0008392836436880011</v>
       </c>
       <c r="D51">
-        <v>-0.007508352082100574</v>
+        <v>0.0145978854434431</v>
       </c>
       <c r="E51">
-        <v>0.0797337683931755</v>
+        <v>-0.008742100515775402</v>
       </c>
       <c r="F51">
-        <v>0.04593956682770751</v>
+        <v>0.09969664216699127</v>
       </c>
       <c r="G51">
-        <v>0.08646860479014698</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05070736596906872</v>
+      </c>
+      <c r="H51">
+        <v>-0.04963841367451857</v>
+      </c>
+      <c r="I51">
+        <v>-0.01770229851714886</v>
+      </c>
+      <c r="J51">
+        <v>-0.04360888186135439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1419277247295732</v>
+        <v>0.1270319439568807</v>
       </c>
       <c r="C53">
-        <v>-0.01587428255579907</v>
+        <v>0.03572876659134398</v>
       </c>
       <c r="D53">
-        <v>0.05030649878594136</v>
+        <v>-0.003753624766457244</v>
       </c>
       <c r="E53">
-        <v>-0.04872309605038538</v>
+        <v>-0.05173140027722798</v>
       </c>
       <c r="F53">
-        <v>-0.000558534553741658</v>
+        <v>-0.04050641491077905</v>
       </c>
       <c r="G53">
-        <v>0.04383290737201225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02213473013733993</v>
+      </c>
+      <c r="H53">
+        <v>0.002779363753746307</v>
+      </c>
+      <c r="I53">
+        <v>-0.03568472938808286</v>
+      </c>
+      <c r="J53">
+        <v>-0.03686183577214095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02597828940912261</v>
+        <v>0.02549516718055489</v>
       </c>
       <c r="C54">
-        <v>-0.006029940783243074</v>
+        <v>0.002447748110693019</v>
       </c>
       <c r="D54">
-        <v>0.02397919283657498</v>
+        <v>-0.006040357611147329</v>
       </c>
       <c r="E54">
-        <v>0.03620043515211682</v>
+        <v>-0.02594153809865504</v>
       </c>
       <c r="F54">
-        <v>0.0487393212394108</v>
+        <v>0.03701458742058851</v>
       </c>
       <c r="G54">
-        <v>0.02338036995125579</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05240327994875534</v>
+      </c>
+      <c r="H54">
+        <v>-0.04064723267662013</v>
+      </c>
+      <c r="I54">
+        <v>-0.02719335812594117</v>
+      </c>
+      <c r="J54">
+        <v>0.004622445989760122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.101106189033241</v>
+        <v>0.1003128078449171</v>
       </c>
       <c r="C55">
-        <v>0.001103204974301167</v>
+        <v>0.01773206259655192</v>
       </c>
       <c r="D55">
-        <v>0.03860461809029458</v>
+        <v>-0.01630353026166149</v>
       </c>
       <c r="E55">
-        <v>-0.008992439367841547</v>
+        <v>-0.03340797691319303</v>
       </c>
       <c r="F55">
-        <v>-0.03220879073920813</v>
+        <v>-0.02718199635413204</v>
       </c>
       <c r="G55">
-        <v>-0.001672012921175478</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.006276476210170711</v>
+      </c>
+      <c r="H55">
+        <v>-0.01128774738023975</v>
+      </c>
+      <c r="I55">
+        <v>-0.01917101917085832</v>
+      </c>
+      <c r="J55">
+        <v>-0.03112171705266569</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.177436991959035</v>
+        <v>0.1676964291989449</v>
       </c>
       <c r="C56">
-        <v>0.009347732622728021</v>
+        <v>0.01396349733995539</v>
       </c>
       <c r="D56">
-        <v>0.09173115618731045</v>
+        <v>-0.00267059826525782</v>
       </c>
       <c r="E56">
-        <v>-0.09654301551193989</v>
+        <v>-0.0873726697509435</v>
       </c>
       <c r="F56">
-        <v>-0.07219016700185338</v>
+        <v>-0.08415326543221542</v>
       </c>
       <c r="G56">
-        <v>0.003313129295169288</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02831031864554553</v>
+      </c>
+      <c r="H56">
+        <v>0.04433006722406842</v>
+      </c>
+      <c r="I56">
+        <v>-0.02917620257938606</v>
+      </c>
+      <c r="J56">
+        <v>-0.04250587775922731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.08917623369641002</v>
+        <v>0.06727073030576668</v>
       </c>
       <c r="C57">
-        <v>-0.03262608899452452</v>
+        <v>0.03737206668681774</v>
       </c>
       <c r="D57">
-        <v>0.02939649208937701</v>
+        <v>0.006276205425271896</v>
       </c>
       <c r="E57">
-        <v>0.03985954443622064</v>
+        <v>-0.01133673944820163</v>
       </c>
       <c r="F57">
-        <v>0.03137579084591086</v>
+        <v>0.0633862102611369</v>
       </c>
       <c r="G57">
-        <v>0.04893527968985903</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02705424189979183</v>
+      </c>
+      <c r="H57">
+        <v>-0.02801265221932201</v>
+      </c>
+      <c r="I57">
+        <v>0.01089143289050361</v>
+      </c>
+      <c r="J57">
+        <v>-0.03636339821899236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1838953372876063</v>
+        <v>0.20777557984464</v>
       </c>
       <c r="C58">
-        <v>-0.03059411533461001</v>
+        <v>0.1148080985770621</v>
       </c>
       <c r="D58">
-        <v>-0.02659871781253997</v>
+        <v>0.05469975414419192</v>
       </c>
       <c r="E58">
-        <v>0.1173809234609188</v>
+        <v>0.008287707396515506</v>
       </c>
       <c r="F58">
-        <v>-0.073552346515395</v>
+        <v>0.2340061223705568</v>
       </c>
       <c r="G58">
-        <v>0.0245897487941193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.161940842074713</v>
+      </c>
+      <c r="H58">
+        <v>-0.3625352143387687</v>
+      </c>
+      <c r="I58">
+        <v>0.1548228714248111</v>
+      </c>
+      <c r="J58">
+        <v>0.7639381438512878</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01703794708367347</v>
+        <v>0.04100378932374506</v>
       </c>
       <c r="C59">
-        <v>0.1943383457566031</v>
+        <v>-0.1771005375208002</v>
       </c>
       <c r="D59">
-        <v>0.002897548526894153</v>
+        <v>0.08745696193870511</v>
       </c>
       <c r="E59">
-        <v>0.0644536914434065</v>
+        <v>0.006749963460777266</v>
       </c>
       <c r="F59">
-        <v>0.01806006179379867</v>
+        <v>0.0713700238497814</v>
       </c>
       <c r="G59">
-        <v>0.007052239951122063</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.003094902052351011</v>
+      </c>
+      <c r="H59">
+        <v>0.02062220775719844</v>
+      </c>
+      <c r="I59">
+        <v>-0.06299835731303141</v>
+      </c>
+      <c r="J59">
+        <v>0.009951572823598412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1912945901768921</v>
+        <v>0.18345589131652</v>
       </c>
       <c r="C60">
-        <v>0.08721975976802948</v>
+        <v>-0.0300804205038012</v>
       </c>
       <c r="D60">
-        <v>0.0005233217073877896</v>
+        <v>0.06688920552306564</v>
       </c>
       <c r="E60">
-        <v>0.1862616126968718</v>
+        <v>-0.01063772606180752</v>
       </c>
       <c r="F60">
-        <v>0.04468165197430136</v>
+        <v>0.210539247732348</v>
       </c>
       <c r="G60">
-        <v>0.01001119996392611</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.06976759428564892</v>
+      </c>
+      <c r="H60">
+        <v>0.2726562748217386</v>
+      </c>
+      <c r="I60">
+        <v>0.09953080617548334</v>
+      </c>
+      <c r="J60">
+        <v>-0.02453397978179918</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04577744391851293</v>
+        <v>0.03797236324982887</v>
       </c>
       <c r="C61">
-        <v>-0.009634485712464112</v>
+        <v>0.02404922342899354</v>
       </c>
       <c r="D61">
-        <v>-0.001376112052929918</v>
+        <v>-0.009133829508222767</v>
       </c>
       <c r="E61">
-        <v>0.03992258167267294</v>
+        <v>-0.00495820279559059</v>
       </c>
       <c r="F61">
-        <v>0.005805166243084293</v>
+        <v>0.04021208779000641</v>
       </c>
       <c r="G61">
-        <v>0.008846258401376327</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01006745752395256</v>
+      </c>
+      <c r="H61">
+        <v>0.003558625197319787</v>
+      </c>
+      <c r="I61">
+        <v>0.03921858402499873</v>
+      </c>
+      <c r="J61">
+        <v>-0.02336715756389947</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04299407585354322</v>
+        <v>0.03105498853035175</v>
       </c>
       <c r="C63">
-        <v>-0.01111401313795346</v>
+        <v>0.01789504879349558</v>
       </c>
       <c r="D63">
-        <v>0.0170092266123241</v>
+        <v>-0.004657644026579641</v>
       </c>
       <c r="E63">
-        <v>0.04272926576176429</v>
+        <v>-0.01311433928518127</v>
       </c>
       <c r="F63">
-        <v>0.01055431491369662</v>
+        <v>0.02996926186781804</v>
       </c>
       <c r="G63">
-        <v>0.03778546010688266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01220545968455641</v>
+      </c>
+      <c r="H63">
+        <v>-0.04943455189809446</v>
+      </c>
+      <c r="I63">
+        <v>-0.03463987189117771</v>
+      </c>
+      <c r="J63">
+        <v>-0.0328934522385535</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.07739507230084679</v>
+        <v>0.05814330489506762</v>
       </c>
       <c r="C64">
-        <v>-0.05650616259535897</v>
+        <v>0.04014971793281993</v>
       </c>
       <c r="D64">
-        <v>0.06157399123798103</v>
+        <v>-0.02959718626569351</v>
       </c>
       <c r="E64">
-        <v>0.05897260591192947</v>
+        <v>-0.04270159364916566</v>
       </c>
       <c r="F64">
-        <v>0.05527904045770133</v>
+        <v>0.04945420679993736</v>
       </c>
       <c r="G64">
-        <v>-0.009631364736209768</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05350714773636324</v>
+      </c>
+      <c r="H64">
+        <v>0.00804100577953394</v>
+      </c>
+      <c r="I64">
+        <v>-0.03310944480352827</v>
+      </c>
+      <c r="J64">
+        <v>-0.1034676937040876</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01951429525073545</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.008675469596791862</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.01017041486021212</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006284333876612167</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.000150308102877599</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0214378879920628</v>
+      </c>
+      <c r="H65">
+        <v>0.004723544782265699</v>
+      </c>
+      <c r="I65">
+        <v>0.01498867779134557</v>
+      </c>
+      <c r="J65">
+        <v>-0.002646824831737614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.08924785218444661</v>
+        <v>0.06828304459908531</v>
       </c>
       <c r="C66">
-        <v>-0.03480655845929361</v>
+        <v>0.05451022537664617</v>
       </c>
       <c r="D66">
-        <v>0.03528673925120551</v>
+        <v>-0.005044019016399806</v>
       </c>
       <c r="E66">
-        <v>0.08037333971944864</v>
+        <v>-0.04614610656260469</v>
       </c>
       <c r="F66">
-        <v>0.03641895509661713</v>
+        <v>0.06926871538439627</v>
       </c>
       <c r="G66">
-        <v>0.02541837302025052</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01549988841947309</v>
+      </c>
+      <c r="H66">
+        <v>-0.001317147052680632</v>
+      </c>
+      <c r="I66">
+        <v>0.03442494671888892</v>
+      </c>
+      <c r="J66">
+        <v>-0.07467425580721807</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.0608527163079627</v>
+        <v>0.0476736096000218</v>
       </c>
       <c r="C67">
-        <v>0.01071192780465035</v>
+        <v>-0.003423524935170594</v>
       </c>
       <c r="D67">
-        <v>0.01287049327126184</v>
+        <v>0.004365595539380512</v>
       </c>
       <c r="E67">
-        <v>0.02381666811957505</v>
+        <v>-0.009923465398729051</v>
       </c>
       <c r="F67">
-        <v>0.007802772623070889</v>
+        <v>0.03885707792109865</v>
       </c>
       <c r="G67">
-        <v>-0.02911107362880189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03545392925557648</v>
+      </c>
+      <c r="H67">
+        <v>0.008011111850041677</v>
+      </c>
+      <c r="I67">
+        <v>0.03892967287672029</v>
+      </c>
+      <c r="J67">
+        <v>-0.01182644658138546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.02475117538425985</v>
+        <v>0.04995498924247896</v>
       </c>
       <c r="C68">
-        <v>0.2432394165148277</v>
+        <v>-0.2141289647687609</v>
       </c>
       <c r="D68">
-        <v>-0.01788849675756723</v>
+        <v>0.1006091288502289</v>
       </c>
       <c r="E68">
-        <v>0.04857270793449685</v>
+        <v>0.01986096518235533</v>
       </c>
       <c r="F68">
-        <v>0.0158080057940204</v>
+        <v>0.05560787271963602</v>
       </c>
       <c r="G68">
-        <v>0.03633156083239625</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.003080693130861911</v>
+      </c>
+      <c r="H68">
+        <v>0.01826719476887806</v>
+      </c>
+      <c r="I68">
+        <v>-0.1637384882437048</v>
+      </c>
+      <c r="J68">
+        <v>0.06788668621785812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07007985630775394</v>
+        <v>0.07239132981953526</v>
       </c>
       <c r="C69">
-        <v>-0.01837157210954726</v>
+        <v>0.02158993626635611</v>
       </c>
       <c r="D69">
-        <v>0.02543081130123341</v>
+        <v>-0.0002764806984604949</v>
       </c>
       <c r="E69">
-        <v>-0.0160244264065479</v>
+        <v>-0.03065092104979018</v>
       </c>
       <c r="F69">
-        <v>0.002924278024592861</v>
+        <v>-0.001346069528517949</v>
       </c>
       <c r="G69">
-        <v>0.03125609743074594</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.027198588582721</v>
+      </c>
+      <c r="H69">
+        <v>-0.02501885058854961</v>
+      </c>
+      <c r="I69">
+        <v>0.003252220891097181</v>
+      </c>
+      <c r="J69">
+        <v>-0.02958812106819357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.01897104406213859</v>
+        <v>0.05030682210221332</v>
       </c>
       <c r="C71">
-        <v>0.278565322635501</v>
+        <v>-0.231586551583481</v>
       </c>
       <c r="D71">
-        <v>-0.02364260075382221</v>
+        <v>0.1139305247284356</v>
       </c>
       <c r="E71">
-        <v>0.07971178310359317</v>
+        <v>0.0416910874547815</v>
       </c>
       <c r="F71">
-        <v>0.01764301877183019</v>
+        <v>0.0790854092784256</v>
       </c>
       <c r="G71">
-        <v>0.0458809466854012</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.0132958781737206</v>
+      </c>
+      <c r="H71">
+        <v>0.02705631897583109</v>
+      </c>
+      <c r="I71">
+        <v>-0.1314113721040433</v>
+      </c>
+      <c r="J71">
+        <v>0.03047611829339978</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1198484118604562</v>
+        <v>0.1255959203882264</v>
       </c>
       <c r="C72">
-        <v>0.003912494432085594</v>
+        <v>0.02863940796357979</v>
       </c>
       <c r="D72">
-        <v>0.04443804977948052</v>
+        <v>-0.0005785619512786245</v>
       </c>
       <c r="E72">
-        <v>0.09241237698752067</v>
+        <v>-0.06115671273399682</v>
       </c>
       <c r="F72">
-        <v>-0.01879748212918921</v>
+        <v>0.08313296105942319</v>
       </c>
       <c r="G72">
-        <v>-0.01573176474892474</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03812050419179178</v>
+      </c>
+      <c r="H72">
+        <v>0.0182154862903727</v>
+      </c>
+      <c r="I72">
+        <v>0.07003930309873208</v>
+      </c>
+      <c r="J72">
+        <v>0.08762539897068451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2965361081430455</v>
+        <v>0.267405689165334</v>
       </c>
       <c r="C73">
-        <v>0.1646063840997725</v>
+        <v>-0.04496305606218839</v>
       </c>
       <c r="D73">
-        <v>-0.06311425450781236</v>
+        <v>0.1182025933993432</v>
       </c>
       <c r="E73">
-        <v>0.3260224247839545</v>
+        <v>0.02836701214133302</v>
       </c>
       <c r="F73">
-        <v>0.0196293358939448</v>
+        <v>0.3121232912502598</v>
       </c>
       <c r="G73">
-        <v>-0.05808369594026979</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1782501394520443</v>
+      </c>
+      <c r="H73">
+        <v>0.4681012452784328</v>
+      </c>
+      <c r="I73">
+        <v>0.2872225090907238</v>
+      </c>
+      <c r="J73">
+        <v>-0.03723527077087575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.160552913725901</v>
+        <v>0.151974078974056</v>
       </c>
       <c r="C74">
-        <v>-0.003714935646340463</v>
+        <v>0.02760651634619801</v>
       </c>
       <c r="D74">
-        <v>0.04665125015657192</v>
+        <v>0.007586823824007769</v>
       </c>
       <c r="E74">
-        <v>-0.02879407892047966</v>
+        <v>-0.04976653426435911</v>
       </c>
       <c r="F74">
-        <v>-0.06005907395354829</v>
+        <v>-0.05518866077678716</v>
       </c>
       <c r="G74">
-        <v>0.06130128176862271</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.02001448268015884</v>
+      </c>
+      <c r="H74">
+        <v>0.03041115629721166</v>
+      </c>
+      <c r="I74">
+        <v>-0.01995158786166502</v>
+      </c>
+      <c r="J74">
+        <v>-0.08936317221468863</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2323431273685086</v>
+        <v>0.2421993505835337</v>
       </c>
       <c r="C75">
-        <v>-0.000524586595911906</v>
+        <v>0.02876018644694324</v>
       </c>
       <c r="D75">
-        <v>0.07513599145381532</v>
+        <v>0.02413576303083996</v>
       </c>
       <c r="E75">
-        <v>-0.1252088398629254</v>
+        <v>-0.104693577534556</v>
       </c>
       <c r="F75">
-        <v>-0.02644804374890287</v>
+        <v>-0.1423802156484378</v>
       </c>
       <c r="G75">
-        <v>0.05110841171515252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.004507685326824089</v>
+      </c>
+      <c r="H75">
+        <v>0.01953827818202468</v>
+      </c>
+      <c r="I75">
+        <v>-0.08382884071044601</v>
+      </c>
+      <c r="J75">
+        <v>-0.0169082305032034</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2454167095818187</v>
+        <v>0.2692198125975151</v>
       </c>
       <c r="C76">
-        <v>0.007362506385565766</v>
+        <v>0.01209813122152252</v>
       </c>
       <c r="D76">
-        <v>0.1192433792398384</v>
+        <v>-0.0118666919827069</v>
       </c>
       <c r="E76">
-        <v>-0.1226414987387577</v>
+        <v>-0.129555846335774</v>
       </c>
       <c r="F76">
-        <v>-0.06774773277883539</v>
+        <v>-0.185316714778785</v>
       </c>
       <c r="G76">
-        <v>0.03227516586592531</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05302546006988301</v>
+      </c>
+      <c r="H76">
+        <v>0.04394754276647547</v>
+      </c>
+      <c r="I76">
+        <v>-0.04420733599249177</v>
+      </c>
+      <c r="J76">
+        <v>-0.0712337172874838</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1345801096945455</v>
+        <v>0.1268756623947238</v>
       </c>
       <c r="C77">
-        <v>-0.05301298426949317</v>
+        <v>0.06148511900916394</v>
       </c>
       <c r="D77">
-        <v>-0.04211015589545355</v>
+        <v>-0.01272605613116999</v>
       </c>
       <c r="E77">
-        <v>0.1486256214412572</v>
+        <v>0.03290878064597993</v>
       </c>
       <c r="F77">
-        <v>0.03588780645373628</v>
+        <v>0.1618231548140986</v>
       </c>
       <c r="G77">
-        <v>-0.03989064402087197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.0036926891672241</v>
+      </c>
+      <c r="H77">
+        <v>-0.2332766961703814</v>
+      </c>
+      <c r="I77">
+        <v>-0.2436011882451865</v>
+      </c>
+      <c r="J77">
+        <v>-0.09714227038686188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08603854755864485</v>
+        <v>0.07871649741022044</v>
       </c>
       <c r="C78">
-        <v>-0.05298237597181295</v>
+        <v>0.06955452149369898</v>
       </c>
       <c r="D78">
-        <v>-0.01483634180011459</v>
+        <v>-0.03124584839311871</v>
       </c>
       <c r="E78">
-        <v>0.05255129704202663</v>
+        <v>-0.007873478773759116</v>
       </c>
       <c r="F78">
-        <v>0.006910352359287589</v>
+        <v>0.07311916033295197</v>
       </c>
       <c r="G78">
-        <v>0.01422084185224693</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01020878383565111</v>
+      </c>
+      <c r="H78">
+        <v>-0.02120754731733334</v>
+      </c>
+      <c r="I78">
+        <v>-0.03029067062606057</v>
+      </c>
+      <c r="J78">
+        <v>-0.04659399439582817</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07432213720354287</v>
+        <v>0.1501625063237219</v>
       </c>
       <c r="C80">
-        <v>-0.01823601949944613</v>
+        <v>-0.3896449974469348</v>
       </c>
       <c r="D80">
-        <v>-0.0409962212221489</v>
+        <v>-0.8921410220546748</v>
       </c>
       <c r="E80">
-        <v>-0.003613532555056639</v>
+        <v>0.05188445178666725</v>
       </c>
       <c r="F80">
-        <v>-0.1233218861045606</v>
+        <v>0.04682906700006969</v>
       </c>
       <c r="G80">
-        <v>-0.9317657654038282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04483416907727411</v>
+      </c>
+      <c r="H80">
+        <v>0.05459643264213328</v>
+      </c>
+      <c r="I80">
+        <v>0.02906810848414623</v>
+      </c>
+      <c r="J80">
+        <v>0.09786726499633847</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1596741212611604</v>
+        <v>0.1798098397128466</v>
       </c>
       <c r="C81">
-        <v>0.005387621528167002</v>
+        <v>0.007188650923019364</v>
       </c>
       <c r="D81">
-        <v>0.06887017941639131</v>
+        <v>0.008222381003175933</v>
       </c>
       <c r="E81">
-        <v>-0.1591965152569339</v>
+        <v>-0.08479397215243351</v>
       </c>
       <c r="F81">
-        <v>-0.08105610891678498</v>
+        <v>-0.1580054667943978</v>
       </c>
       <c r="G81">
-        <v>0.04004299174434427</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0296607773091925</v>
+      </c>
+      <c r="H81">
+        <v>0.01101985458022998</v>
+      </c>
+      <c r="I81">
+        <v>-0.05698109207032787</v>
+      </c>
+      <c r="J81">
+        <v>-0.001187776057302599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09387382844091346</v>
+        <v>0.06907629920073684</v>
       </c>
       <c r="C83">
-        <v>-0.06085662928974175</v>
+        <v>0.05195987985326569</v>
       </c>
       <c r="D83">
-        <v>-0.06884447749592257</v>
+        <v>-0.004179967434125595</v>
       </c>
       <c r="E83">
-        <v>0.01056605502311198</v>
+        <v>0.03677013188924956</v>
       </c>
       <c r="F83">
-        <v>0.06059969394290444</v>
+        <v>0.04564314637112503</v>
       </c>
       <c r="G83">
-        <v>0.0385897651720737</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05894212624972169</v>
+      </c>
+      <c r="H83">
+        <v>-0.02206149379238204</v>
+      </c>
+      <c r="I83">
+        <v>-0.01996346170483388</v>
+      </c>
+      <c r="J83">
+        <v>-0.07751961787789322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2381378700626171</v>
+        <v>0.2525625193802954</v>
       </c>
       <c r="C85">
-        <v>-0.05039263863612213</v>
+        <v>0.05085546809908321</v>
       </c>
       <c r="D85">
-        <v>0.06725526270451558</v>
+        <v>-0.00810035427296211</v>
       </c>
       <c r="E85">
-        <v>-0.1632071032873831</v>
+        <v>-0.09583189481185718</v>
       </c>
       <c r="F85">
-        <v>-0.0586042959516471</v>
+        <v>-0.1873824437436593</v>
       </c>
       <c r="G85">
-        <v>0.01414667310874807</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.008580721601512839</v>
+      </c>
+      <c r="H85">
+        <v>-0.02151185875065196</v>
+      </c>
+      <c r="I85">
+        <v>-0.04815122869408404</v>
+      </c>
+      <c r="J85">
+        <v>-0.07301912271987393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04144480837401917</v>
+        <v>0.02590890041351309</v>
       </c>
       <c r="C86">
-        <v>-0.05890939049404956</v>
+        <v>0.06018052737050411</v>
       </c>
       <c r="D86">
-        <v>0.01769963180944906</v>
+        <v>-0.02411702282373845</v>
       </c>
       <c r="E86">
-        <v>0.06750002020556468</v>
+        <v>-0.01119274029290714</v>
       </c>
       <c r="F86">
-        <v>-0.005879774677307442</v>
+        <v>0.06792684333182697</v>
       </c>
       <c r="G86">
-        <v>0.02858879454999107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.007140660694227718</v>
+      </c>
+      <c r="H86">
+        <v>-0.06635570864456618</v>
+      </c>
+      <c r="I86">
+        <v>-0.02286644942548011</v>
+      </c>
+      <c r="J86">
+        <v>-0.03961372397123213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02913230043032554</v>
+        <v>0.03402807828013608</v>
       </c>
       <c r="C87">
-        <v>0.04840573952541859</v>
+        <v>-0.007706690025548697</v>
       </c>
       <c r="D87">
-        <v>-0.001909869414325675</v>
+        <v>0.006204680426480456</v>
       </c>
       <c r="E87">
-        <v>0.09473116422988444</v>
+        <v>-0.005302900140777363</v>
       </c>
       <c r="F87">
-        <v>-0.02803287665596364</v>
+        <v>0.1005621685750157</v>
       </c>
       <c r="G87">
-        <v>0.01608956970663665</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.0260139208029756</v>
+      </c>
+      <c r="H87">
+        <v>-0.01534674449853543</v>
+      </c>
+      <c r="I87">
+        <v>0.01360160758392276</v>
+      </c>
+      <c r="J87">
+        <v>-0.02111965554196451</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.04123491550218113</v>
+        <v>0.02943264246647893</v>
       </c>
       <c r="C88">
-        <v>-0.03084753001226096</v>
+        <v>0.01642616138113115</v>
       </c>
       <c r="D88">
-        <v>0.003895845770087026</v>
+        <v>-0.01707051368970195</v>
       </c>
       <c r="E88">
-        <v>-0.01108195409607249</v>
+        <v>-0.009150628522670387</v>
       </c>
       <c r="F88">
-        <v>-0.01812092990471913</v>
+        <v>-0.01338531231576171</v>
       </c>
       <c r="G88">
-        <v>0.007368245487712161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03718390700266921</v>
+      </c>
+      <c r="H88">
+        <v>-0.03743087837645737</v>
+      </c>
+      <c r="I88">
+        <v>0.02314973735161438</v>
+      </c>
+      <c r="J88">
+        <v>-0.02346077192532214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02085093919657448</v>
+        <v>0.0701596135046117</v>
       </c>
       <c r="C89">
-        <v>0.4067700651788011</v>
+        <v>-0.3514351446023475</v>
       </c>
       <c r="D89">
-        <v>-0.09326241607830169</v>
+        <v>0.1813257351701046</v>
       </c>
       <c r="E89">
-        <v>0.002471372385204485</v>
+        <v>0.06021958142599019</v>
       </c>
       <c r="F89">
-        <v>0.02900846249769869</v>
+        <v>0.0342490207140542</v>
       </c>
       <c r="G89">
-        <v>0.06447048434115053</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03661167765054582</v>
+      </c>
+      <c r="H89">
+        <v>-0.05166019104118876</v>
+      </c>
+      <c r="I89">
+        <v>-0.2613685017537261</v>
+      </c>
+      <c r="J89">
+        <v>0.06408534840478178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.02079423847382975</v>
+        <v>0.04979262496774885</v>
       </c>
       <c r="C90">
-        <v>0.308445888819976</v>
+        <v>-0.3036428550157907</v>
       </c>
       <c r="D90">
-        <v>-0.0478686819501196</v>
+        <v>0.1382269723989475</v>
       </c>
       <c r="E90">
-        <v>0.04659866616188588</v>
+        <v>0.04646360826248444</v>
       </c>
       <c r="F90">
-        <v>0.03039252645273294</v>
+        <v>0.03632916812013324</v>
       </c>
       <c r="G90">
-        <v>0.05968830142193199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0195652390767911</v>
+      </c>
+      <c r="H90">
+        <v>-0.009625388910455081</v>
+      </c>
+      <c r="I90">
+        <v>-0.221633490122012</v>
+      </c>
+      <c r="J90">
+        <v>0.04042669247383402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.269124347780791</v>
+        <v>0.2924739303081799</v>
       </c>
       <c r="C91">
-        <v>-0.03799435373268401</v>
+        <v>0.04626275279492894</v>
       </c>
       <c r="D91">
-        <v>0.08122226395985287</v>
+        <v>0.004318426638590329</v>
       </c>
       <c r="E91">
-        <v>-0.2690986831932048</v>
+        <v>-0.09067397731363531</v>
       </c>
       <c r="F91">
-        <v>-0.06267112625908519</v>
+        <v>-0.2807833832933667</v>
       </c>
       <c r="G91">
-        <v>-0.02484742596843703</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02407184762747193</v>
+      </c>
+      <c r="H91">
+        <v>0.01155948419744311</v>
+      </c>
+      <c r="I91">
+        <v>-0.1029990845881286</v>
+      </c>
+      <c r="J91">
+        <v>-0.04608723737860449</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.0514086016019308</v>
+        <v>0.1126039255459811</v>
       </c>
       <c r="C92">
-        <v>0.4109437923393933</v>
+        <v>-0.4026820916925163</v>
       </c>
       <c r="D92">
-        <v>-0.1544969033551613</v>
+        <v>0.1587049004742067</v>
       </c>
       <c r="E92">
-        <v>-0.0918859785721609</v>
+        <v>0.07687205800233456</v>
       </c>
       <c r="F92">
-        <v>-0.05615002961362286</v>
+        <v>-0.1264233371558708</v>
       </c>
       <c r="G92">
-        <v>-0.1578688447889048</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.08320422994282038</v>
+      </c>
+      <c r="H92">
+        <v>-0.4397802768578984</v>
+      </c>
+      <c r="I92">
+        <v>0.6814153623870964</v>
+      </c>
+      <c r="J92">
+        <v>-0.2902657383253008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.00995424266497047</v>
+        <v>0.05663321527203411</v>
       </c>
       <c r="C93">
-        <v>0.3755565269530567</v>
+        <v>-0.3625320798788218</v>
       </c>
       <c r="D93">
-        <v>-0.0726751045650951</v>
+        <v>0.1807809312208379</v>
       </c>
       <c r="E93">
-        <v>-0.02722132816589301</v>
+        <v>0.07924629392000011</v>
       </c>
       <c r="F93">
-        <v>0.004440076687754983</v>
+        <v>0.00418085102854017</v>
       </c>
       <c r="G93">
-        <v>-0.01205726448577734</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03303370264707686</v>
+      </c>
+      <c r="H93">
+        <v>0.02238830860593908</v>
+      </c>
+      <c r="I93">
+        <v>-0.1615617152785117</v>
+      </c>
+      <c r="J93">
+        <v>0.06352340776463747</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2837514080273477</v>
+        <v>0.3040518554324106</v>
       </c>
       <c r="C94">
-        <v>0.07570608977798531</v>
+        <v>0.002131551680235547</v>
       </c>
       <c r="D94">
-        <v>0.06403660800160706</v>
+        <v>0.0442584225237864</v>
       </c>
       <c r="E94">
-        <v>-0.3767020916212411</v>
+        <v>-0.1305155389350272</v>
       </c>
       <c r="F94">
-        <v>-0.414984624258849</v>
+        <v>-0.3418365595780675</v>
       </c>
       <c r="G94">
-        <v>0.08692819394250346</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2157984645274602</v>
+      </c>
+      <c r="H94">
+        <v>-0.1236737693940776</v>
+      </c>
+      <c r="I94">
+        <v>-0.03075174342048196</v>
+      </c>
+      <c r="J94">
+        <v>0.1522731201871221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1881908029288389</v>
+        <v>0.133439936200833</v>
       </c>
       <c r="C95">
-        <v>0.0132725027187968</v>
+        <v>0.06909113520852087</v>
       </c>
       <c r="D95">
-        <v>0.01369282038773874</v>
+        <v>0.0778279285372097</v>
       </c>
       <c r="E95">
-        <v>-0.3617488440905184</v>
+        <v>-0.03562882263621567</v>
       </c>
       <c r="F95">
-        <v>0.8455261848885114</v>
+        <v>-0.08344772286964261</v>
       </c>
       <c r="G95">
-        <v>-0.10609455508978</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8945459625719473</v>
+      </c>
+      <c r="H95">
+        <v>0.1738869001207714</v>
+      </c>
+      <c r="I95">
+        <v>0.09555396568991685</v>
+      </c>
+      <c r="J95">
+        <v>0.2561462410548396</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2275094551691499</v>
+        <v>0.2057241841491934</v>
       </c>
       <c r="C98">
-        <v>0.1066990522055085</v>
+        <v>-0.03556289850512121</v>
       </c>
       <c r="D98">
-        <v>-0.03655072972868389</v>
+        <v>0.08436399374407397</v>
       </c>
       <c r="E98">
-        <v>0.07846681535994662</v>
+        <v>0.02729577383816767</v>
       </c>
       <c r="F98">
-        <v>0.03688133917877913</v>
+        <v>0.1627583154200363</v>
       </c>
       <c r="G98">
-        <v>0.03474198636596838</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08376842679524003</v>
+      </c>
+      <c r="H98">
+        <v>0.3201253788868459</v>
+      </c>
+      <c r="I98">
+        <v>0.1600699962414382</v>
+      </c>
+      <c r="J98">
+        <v>0.03520430368405181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02347896735815095</v>
+        <v>0.01628778850612827</v>
       </c>
       <c r="C101">
-        <v>-0.02486822196969838</v>
+        <v>0.02721484027252288</v>
       </c>
       <c r="D101">
-        <v>0.03013292719320726</v>
+        <v>-0.01660959967015412</v>
       </c>
       <c r="E101">
-        <v>0.03508863847232965</v>
+        <v>-0.0320589067868172</v>
       </c>
       <c r="F101">
-        <v>0.01415474290712546</v>
+        <v>0.06524542759302386</v>
       </c>
       <c r="G101">
-        <v>0.02744541916832666</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01789455494257925</v>
+      </c>
+      <c r="H101">
+        <v>-0.1083995631960875</v>
+      </c>
+      <c r="I101">
+        <v>0.04896626701748355</v>
+      </c>
+      <c r="J101">
+        <v>0.1119010733585404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1170482427161663</v>
+        <v>0.1221602523260637</v>
       </c>
       <c r="C102">
-        <v>-0.02336848241621275</v>
+        <v>0.02175574267533657</v>
       </c>
       <c r="D102">
-        <v>0.04823138340825364</v>
+        <v>-0.009454319592934662</v>
       </c>
       <c r="E102">
-        <v>-0.08874861134635481</v>
+        <v>-0.05626616916138086</v>
       </c>
       <c r="F102">
-        <v>-0.0014766675606946</v>
+        <v>-0.09994843963181284</v>
       </c>
       <c r="G102">
-        <v>-0.002552979385954942</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01456771788967723</v>
+      </c>
+      <c r="H102">
+        <v>0.01949487505807562</v>
+      </c>
+      <c r="I102">
+        <v>-0.05377763496895231</v>
+      </c>
+      <c r="J102">
+        <v>-0.04313208509874108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01544952893278172</v>
+        <v>0.03117874206224524</v>
       </c>
       <c r="C103">
-        <v>-0.0002856224911737481</v>
+        <v>0.00226985729647655</v>
       </c>
       <c r="D103">
-        <v>0.01323113978032508</v>
+        <v>-0.008976403095459724</v>
       </c>
       <c r="E103">
-        <v>-0.02723119557228331</v>
+        <v>-0.02042367359211252</v>
       </c>
       <c r="F103">
-        <v>-0.007962221868094225</v>
+        <v>-0.02792466425898087</v>
       </c>
       <c r="G103">
-        <v>0.01002003232452387</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01304345674304075</v>
+      </c>
+      <c r="H103">
+        <v>-0.01516611483434195</v>
+      </c>
+      <c r="I103">
+        <v>-0.02938590335814009</v>
+      </c>
+      <c r="J103">
+        <v>-0.005538366552538743</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
